--- a/biz_case.xlsx
+++ b/biz_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C4CEC-958F-4219-8F86-0EB977235D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04FEDC-18EF-413D-9A49-D6CACFF735F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87A8A066-4C97-4103-9735-67C26A891AC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="240">
   <si>
     <t>BC_WRITER</t>
   </si>
@@ -841,30 +841,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>157스페이스</t>
-  </si>
-  <si>
     <t>에너지 효율을 고려한 친환경 집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>158스페이스</t>
-  </si>
-  <si>
     <t>다락방의 재발견: 아늑한 공간 활용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>159스페이스</t>
-  </si>
-  <si>
     <t>진정한 휴식을 위한 메디테이션 룸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>160스페이스</t>
-  </si>
-  <si>
     <t>도시적인 미니멀리즘: 단순하면서도 스타일리시한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,6 +1042,14 @@
   </si>
   <si>
     <t>패션 디자이너의 스튜디오: 창조적 영감을 자극하는 공간 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156스페이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1075,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1107,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1132,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF57F196-D472-4ADA-B5BE-F7AEA4A5A598}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,6 +1473,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1475,12 +1494,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1494,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -1508,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1522,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1536,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>5101</v>
+        <v>45624</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1550,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1564,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
@@ -1578,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1592,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -1606,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -1620,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5102</v>
+        <v>56454</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -1634,7 +1653,7 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>5103</v>
+        <v>67567</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1648,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>5103</v>
+        <v>67567</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -1662,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>5103</v>
+        <v>67567</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -1676,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>5103</v>
+        <v>67567</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
@@ -1690,7 +1709,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5103</v>
+        <v>67567</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -1704,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="B19">
-        <v>5104</v>
+        <v>78786</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
@@ -1718,7 +1737,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>5104</v>
+        <v>78786</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>43</v>
@@ -1732,7 +1751,7 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>5104</v>
+        <v>78786</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
@@ -1746,7 +1765,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>5104</v>
+        <v>78786</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -1760,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>5104</v>
+        <v>78786</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>49</v>
@@ -1774,7 +1793,7 @@
         <v>51</v>
       </c>
       <c r="B24">
-        <v>5105</v>
+        <v>45745</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>52</v>
@@ -1788,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="B25">
-        <v>5105</v>
+        <v>45745</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>54</v>
@@ -1802,7 +1821,7 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>5105</v>
+        <v>45745</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>56</v>
@@ -1816,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="B27">
-        <v>5105</v>
+        <v>45745</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
@@ -1830,7 +1849,7 @@
         <v>51</v>
       </c>
       <c r="B28">
-        <v>5105</v>
+        <v>45745</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>60</v>
@@ -1844,7 +1863,7 @@
         <v>62</v>
       </c>
       <c r="B29">
-        <v>5106</v>
+        <v>54745</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>63</v>
@@ -1858,7 +1877,7 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>5106</v>
+        <v>54745</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>65</v>
@@ -1872,7 +1891,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>5106</v>
+        <v>54745</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
@@ -1886,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="B32">
-        <v>5106</v>
+        <v>54745</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>69</v>
@@ -1900,7 +1919,7 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>5106</v>
+        <v>54745</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>71</v>
@@ -1914,7 +1933,7 @@
         <v>73</v>
       </c>
       <c r="B34">
-        <v>5107</v>
+        <v>54754</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>74</v>
@@ -1928,7 +1947,7 @@
         <v>73</v>
       </c>
       <c r="B35">
-        <v>5107</v>
+        <v>54754</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>76</v>
@@ -1942,7 +1961,7 @@
         <v>73</v>
       </c>
       <c r="B36">
-        <v>5107</v>
+        <v>54754</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>78</v>
@@ -1956,7 +1975,7 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>5107</v>
+        <v>54754</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>80</v>
@@ -1970,7 +1989,7 @@
         <v>73</v>
       </c>
       <c r="B38">
-        <v>5107</v>
+        <v>54754</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>82</v>
@@ -1984,7 +2003,7 @@
         <v>84</v>
       </c>
       <c r="B39">
-        <v>5108</v>
+        <v>32432</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>85</v>
@@ -1998,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="B40">
-        <v>5108</v>
+        <v>32432</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>87</v>
@@ -2012,7 +2031,7 @@
         <v>84</v>
       </c>
       <c r="B41">
-        <v>5108</v>
+        <v>32432</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>89</v>
@@ -2026,7 +2045,7 @@
         <v>84</v>
       </c>
       <c r="B42">
-        <v>5108</v>
+        <v>32432</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>91</v>
@@ -2040,7 +2059,7 @@
         <v>84</v>
       </c>
       <c r="B43">
-        <v>5108</v>
+        <v>32432</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>93</v>
@@ -2054,7 +2073,7 @@
         <v>95</v>
       </c>
       <c r="B44">
-        <v>5109</v>
+        <v>54672</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
@@ -2068,7 +2087,7 @@
         <v>95</v>
       </c>
       <c r="B45">
-        <v>5109</v>
+        <v>54672</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>98</v>
@@ -2082,7 +2101,7 @@
         <v>95</v>
       </c>
       <c r="B46">
-        <v>5109</v>
+        <v>54672</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>100</v>
@@ -2096,7 +2115,7 @@
         <v>95</v>
       </c>
       <c r="B47">
-        <v>5109</v>
+        <v>54672</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>102</v>
@@ -2110,7 +2129,7 @@
         <v>95</v>
       </c>
       <c r="B48">
-        <v>5109</v>
+        <v>54672</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>104</v>
@@ -2123,8 +2142,8 @@
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49">
-        <v>5110</v>
+      <c r="B49" s="5">
+        <v>15755</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>107</v>
@@ -2137,8 +2156,8 @@
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B50">
-        <v>5110</v>
+      <c r="B50" s="5">
+        <v>15755</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>108</v>
@@ -2151,8 +2170,8 @@
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B51">
-        <v>5110</v>
+      <c r="B51" s="5">
+        <v>15755</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>109</v>
@@ -2165,8 +2184,8 @@
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52">
-        <v>5110</v>
+      <c r="B52" s="5">
+        <v>15755</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>110</v>
@@ -2179,8 +2198,8 @@
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B53">
-        <v>5110</v>
+      <c r="B53" s="5">
+        <v>15755</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>111</v>
@@ -2193,8 +2212,8 @@
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B54">
-        <v>5111</v>
+      <c r="B54" s="5">
+        <v>45134</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>113</v>
@@ -2207,8 +2226,8 @@
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B55">
-        <v>5111</v>
+      <c r="B55" s="5">
+        <v>45134</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>114</v>
@@ -2221,8 +2240,8 @@
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B56">
-        <v>5111</v>
+      <c r="B56" s="5">
+        <v>45134</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>115</v>
@@ -2235,8 +2254,8 @@
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57">
-        <v>5111</v>
+      <c r="B57" s="5">
+        <v>45134</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>116</v>
@@ -2249,8 +2268,8 @@
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58">
-        <v>5111</v>
+      <c r="B58" s="5">
+        <v>45134</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>117</v>
@@ -2263,8 +2282,8 @@
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B59">
-        <v>5112</v>
+      <c r="B59" s="5">
+        <v>34631</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>119</v>
@@ -2277,8 +2296,8 @@
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60">
-        <v>5112</v>
+      <c r="B60" s="5">
+        <v>34631</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>120</v>
@@ -2291,8 +2310,8 @@
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61">
-        <v>5112</v>
+      <c r="B61" s="5">
+        <v>34631</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>121</v>
@@ -2305,8 +2324,8 @@
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B62">
-        <v>5112</v>
+      <c r="B62" s="5">
+        <v>34631</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>122</v>
@@ -2319,8 +2338,8 @@
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B63">
-        <v>5112</v>
+      <c r="B63" s="5">
+        <v>34631</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>123</v>
@@ -2333,8 +2352,8 @@
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B64">
-        <v>5113</v>
+      <c r="B64" s="5">
+        <v>34643</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>125</v>
@@ -2343,12 +2362,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65">
-        <v>5113</v>
+      <c r="B65" s="5">
+        <v>34643</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>126</v>
@@ -2357,12 +2376,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B66">
-        <v>5113</v>
+      <c r="B66" s="5">
+        <v>34643</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>127</v>
@@ -2375,8 +2394,8 @@
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B67">
-        <v>5113</v>
+      <c r="B67" s="5">
+        <v>34643</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>128</v>
@@ -2389,8 +2408,8 @@
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B68">
-        <v>5113</v>
+      <c r="B68" s="5">
+        <v>34643</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>129</v>
@@ -2403,8 +2422,8 @@
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B69">
-        <v>5114</v>
+      <c r="B69" s="5">
+        <v>54227</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>131</v>
@@ -2417,8 +2436,8 @@
       <c r="A70" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B70">
-        <v>5114</v>
+      <c r="B70" s="5">
+        <v>54227</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>132</v>
@@ -2431,8 +2450,8 @@
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B71">
-        <v>5114</v>
+      <c r="B71" s="5">
+        <v>54227</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>133</v>
@@ -2445,8 +2464,8 @@
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B72">
-        <v>5114</v>
+      <c r="B72" s="5">
+        <v>54227</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>134</v>
@@ -2459,8 +2478,8 @@
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B73">
-        <v>5114</v>
+      <c r="B73" s="5">
+        <v>54227</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>135</v>
@@ -2473,8 +2492,8 @@
       <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B74">
-        <v>5115</v>
+      <c r="B74" s="5">
+        <v>23464</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>137</v>
@@ -2487,8 +2506,8 @@
       <c r="A75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B75">
-        <v>5115</v>
+      <c r="B75" s="5">
+        <v>23464</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>138</v>
@@ -2501,8 +2520,8 @@
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B76">
-        <v>5115</v>
+      <c r="B76" s="5">
+        <v>23464</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>139</v>
@@ -2515,8 +2534,8 @@
       <c r="A77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B77">
-        <v>5115</v>
+      <c r="B77" s="5">
+        <v>23464</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>140</v>
@@ -2529,8 +2548,8 @@
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B78">
-        <v>5115</v>
+      <c r="B78" s="5">
+        <v>23464</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>141</v>
@@ -2543,8 +2562,8 @@
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B79">
-        <v>5116</v>
+      <c r="B79" s="5">
+        <v>54548</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>143</v>
@@ -2557,8 +2576,8 @@
       <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80">
-        <v>5116</v>
+      <c r="B80" s="5">
+        <v>54548</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>144</v>
@@ -2571,8 +2590,8 @@
       <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B81">
-        <v>5116</v>
+      <c r="B81" s="5">
+        <v>54548</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>145</v>
@@ -2585,8 +2604,8 @@
       <c r="A82" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B82">
-        <v>5116</v>
+      <c r="B82" s="5">
+        <v>54548</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>146</v>
@@ -2599,8 +2618,8 @@
       <c r="A83" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B83">
-        <v>5116</v>
+      <c r="B83" s="5">
+        <v>54548</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>147</v>
@@ -2613,8 +2632,8 @@
       <c r="A84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B84">
-        <v>5012</v>
+      <c r="B84" s="6">
+        <v>85011</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>149</v>
@@ -2627,8 +2646,8 @@
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B85">
-        <v>5012</v>
+      <c r="B85" s="6">
+        <v>85011</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>150</v>
@@ -2641,8 +2660,8 @@
       <c r="A86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B86">
-        <v>5012</v>
+      <c r="B86" s="6">
+        <v>85011</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>151</v>
@@ -2655,8 +2674,8 @@
       <c r="A87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B87">
-        <v>5012</v>
+      <c r="B87" s="6">
+        <v>85011</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>152</v>
@@ -2669,8 +2688,8 @@
       <c r="A88" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B88">
-        <v>5012</v>
+      <c r="B88" s="6">
+        <v>85011</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>153</v>
@@ -2683,8 +2702,8 @@
       <c r="A89" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B89">
-        <v>5016</v>
+      <c r="B89" s="6">
+        <v>50506</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>155</v>
@@ -2697,8 +2716,8 @@
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B90">
-        <v>5016</v>
+      <c r="B90" s="6">
+        <v>50506</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>156</v>
@@ -2711,8 +2730,8 @@
       <c r="A91" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B91">
-        <v>5016</v>
+      <c r="B91" s="6">
+        <v>50506</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>157</v>
@@ -2725,8 +2744,8 @@
       <c r="A92" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B92">
-        <v>5016</v>
+      <c r="B92" s="6">
+        <v>50506</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>158</v>
@@ -2739,8 +2758,8 @@
       <c r="A93" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B93">
-        <v>5016</v>
+      <c r="B93" s="6">
+        <v>50506</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>159</v>
@@ -2753,8 +2772,8 @@
       <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B94">
-        <v>5017</v>
+      <c r="B94" s="6">
+        <v>20622</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>161</v>
@@ -2767,8 +2786,8 @@
       <c r="A95" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B95">
-        <v>5017</v>
+      <c r="B95" s="6">
+        <v>20622</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>162</v>
@@ -2781,8 +2800,8 @@
       <c r="A96" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B96">
-        <v>5017</v>
+      <c r="B96" s="6">
+        <v>20622</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>163</v>
@@ -2795,8 +2814,8 @@
       <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B97">
-        <v>5017</v>
+      <c r="B97" s="6">
+        <v>20622</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>164</v>
@@ -2809,8 +2828,8 @@
       <c r="A98" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B98">
-        <v>5017</v>
+      <c r="B98" s="6">
+        <v>20622</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>165</v>
@@ -2823,8 +2842,8 @@
       <c r="A99" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B99">
-        <v>5029</v>
+      <c r="B99" s="6">
+        <v>49607</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>167</v>
@@ -2837,8 +2856,8 @@
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B100">
-        <v>5029</v>
+      <c r="B100" s="6">
+        <v>49607</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>168</v>
@@ -2851,8 +2870,8 @@
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B101">
-        <v>5029</v>
+      <c r="B101" s="6">
+        <v>49607</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>169</v>
@@ -2865,8 +2884,8 @@
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B102">
-        <v>5029</v>
+      <c r="B102" s="6">
+        <v>49607</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>170</v>
@@ -2879,8 +2898,8 @@
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B103">
-        <v>5029</v>
+      <c r="B103" s="6">
+        <v>49607</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>171</v>
@@ -2893,8 +2912,8 @@
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B104">
-        <v>5032</v>
+      <c r="B104" s="6">
+        <v>48856</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>173</v>
@@ -2907,8 +2926,8 @@
       <c r="A105" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B105">
-        <v>5032</v>
+      <c r="B105" s="6">
+        <v>48856</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>174</v>
@@ -2921,8 +2940,8 @@
       <c r="A106" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B106">
-        <v>5032</v>
+      <c r="B106" s="6">
+        <v>48856</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>175</v>
@@ -2935,8 +2954,8 @@
       <c r="A107" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B107">
-        <v>5032</v>
+      <c r="B107" s="6">
+        <v>48856</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>176</v>
@@ -2949,8 +2968,8 @@
       <c r="A108" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B108">
-        <v>5032</v>
+      <c r="B108" s="6">
+        <v>48856</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>177</v>
@@ -2963,8 +2982,8 @@
       <c r="A109" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B109">
-        <v>5033</v>
+      <c r="B109" s="6">
+        <v>68073</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>179</v>
@@ -2977,8 +2996,8 @@
       <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B110">
-        <v>5033</v>
+      <c r="B110" s="6">
+        <v>68073</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>180</v>
@@ -2991,8 +3010,8 @@
       <c r="A111" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B111">
-        <v>5033</v>
+      <c r="B111" s="6">
+        <v>68073</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>181</v>
@@ -3005,8 +3024,8 @@
       <c r="A112" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B112">
-        <v>5033</v>
+      <c r="B112" s="6">
+        <v>68073</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>182</v>
@@ -3019,8 +3038,8 @@
       <c r="A113" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B113">
-        <v>5033</v>
+      <c r="B113" s="6">
+        <v>68073</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>183</v>
@@ -3031,10 +3050,10 @@
     </row>
     <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B114">
-        <v>5053</v>
+        <v>239</v>
+      </c>
+      <c r="B114" s="6">
+        <v>81185</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>185</v>
@@ -3045,13 +3064,13 @@
     </row>
     <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" s="6">
+        <v>81185</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B115">
-        <v>5053</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>68</v>
@@ -3059,13 +3078,13 @@
     </row>
     <row r="116" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116">
-        <v>5053</v>
+        <v>184</v>
+      </c>
+      <c r="B116" s="6">
+        <v>81185</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>70</v>
@@ -3073,13 +3092,13 @@
     </row>
     <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B117">
-        <v>5053</v>
+        <v>184</v>
+      </c>
+      <c r="B117" s="6">
+        <v>81185</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>72</v>
@@ -3087,13 +3106,13 @@
     </row>
     <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B118">
-        <v>5053</v>
+        <v>184</v>
+      </c>
+      <c r="B118" s="6">
+        <v>81185</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>75</v>
@@ -3101,13 +3120,13 @@
     </row>
     <row r="119" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119">
-        <v>5057</v>
+        <v>190</v>
+      </c>
+      <c r="B119" s="6">
+        <v>50267</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>77</v>
@@ -3115,13 +3134,13 @@
     </row>
     <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B120">
-        <v>5057</v>
+        <v>190</v>
+      </c>
+      <c r="B120" s="6">
+        <v>50267</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>79</v>
@@ -3129,13 +3148,13 @@
     </row>
     <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B121">
-        <v>5057</v>
+        <v>190</v>
+      </c>
+      <c r="B121" s="6">
+        <v>50267</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>81</v>
@@ -3143,13 +3162,13 @@
     </row>
     <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="6">
+        <v>50267</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B122">
-        <v>5057</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>83</v>
@@ -3157,13 +3176,13 @@
     </row>
     <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B123">
-        <v>5057</v>
+        <v>190</v>
+      </c>
+      <c r="B123" s="6">
+        <v>50267</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>86</v>
@@ -3171,13 +3190,13 @@
     </row>
     <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124">
-        <v>5063</v>
+        <v>196</v>
+      </c>
+      <c r="B124" s="6">
+        <v>46354</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>88</v>
@@ -3185,13 +3204,13 @@
     </row>
     <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125">
-        <v>5063</v>
+        <v>196</v>
+      </c>
+      <c r="B125" s="6">
+        <v>46354</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>90</v>
@@ -3199,13 +3218,13 @@
     </row>
     <row r="126" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126">
-        <v>5063</v>
+        <v>196</v>
+      </c>
+      <c r="B126" s="6">
+        <v>46354</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>92</v>
@@ -3213,13 +3232,13 @@
     </row>
     <row r="127" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="6">
+        <v>46354</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B127">
-        <v>5063</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>94</v>
@@ -3227,13 +3246,13 @@
     </row>
     <row r="128" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128">
-        <v>5063</v>
+        <v>196</v>
+      </c>
+      <c r="B128" s="6">
+        <v>46354</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>97</v>
@@ -3241,13 +3260,13 @@
     </row>
     <row r="129" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B129">
-        <v>5072</v>
+        <v>202</v>
+      </c>
+      <c r="B129" s="6">
+        <v>16254</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>99</v>
@@ -3255,13 +3274,13 @@
     </row>
     <row r="130" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130">
-        <v>5072</v>
+        <v>202</v>
+      </c>
+      <c r="B130" s="6">
+        <v>16254</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>101</v>
@@ -3269,13 +3288,13 @@
     </row>
     <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B131">
-        <v>5072</v>
+        <v>202</v>
+      </c>
+      <c r="B131" s="6">
+        <v>16254</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>103</v>
@@ -3283,13 +3302,13 @@
     </row>
     <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="6">
+        <v>16254</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B132">
-        <v>5072</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>105</v>
@@ -3297,13 +3316,13 @@
     </row>
     <row r="133" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B133">
-        <v>5072</v>
+        <v>202</v>
+      </c>
+      <c r="B133" s="6">
+        <v>16254</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>26</v>
@@ -3311,13 +3330,13 @@
     </row>
     <row r="134" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B134">
-        <v>5100</v>
+        <v>208</v>
+      </c>
+      <c r="B134" s="6">
+        <v>22243</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>28</v>
@@ -3325,13 +3344,13 @@
     </row>
     <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B135">
-        <v>5100</v>
+        <v>208</v>
+      </c>
+      <c r="B135" s="6">
+        <v>22243</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>31</v>
@@ -3339,13 +3358,13 @@
     </row>
     <row r="136" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B136">
-        <v>5100</v>
+        <v>208</v>
+      </c>
+      <c r="B136" s="6">
+        <v>22243</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>33</v>
@@ -3353,13 +3372,13 @@
     </row>
     <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="6">
+        <v>22243</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B137">
-        <v>5100</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>35</v>
@@ -3367,13 +3386,13 @@
     </row>
     <row r="138" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B138">
-        <v>5100</v>
+        <v>208</v>
+      </c>
+      <c r="B138" s="6">
+        <v>22243</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>37</v>
@@ -3381,13 +3400,13 @@
     </row>
     <row r="139" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B139">
-        <v>5122</v>
+        <v>214</v>
+      </c>
+      <c r="B139" s="5">
+        <v>24658</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>39</v>
@@ -3395,13 +3414,13 @@
     </row>
     <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B140">
-        <v>5122</v>
+        <v>214</v>
+      </c>
+      <c r="B140" s="5">
+        <v>24658</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>42</v>
@@ -3409,13 +3428,13 @@
     </row>
     <row r="141" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141">
-        <v>5122</v>
+        <v>214</v>
+      </c>
+      <c r="B141" s="5">
+        <v>24658</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>44</v>
@@ -3423,13 +3442,13 @@
     </row>
     <row r="142" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" s="5">
+        <v>24658</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B142">
-        <v>5122</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>46</v>
@@ -3437,13 +3456,13 @@
     </row>
     <row r="143" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B143">
-        <v>5122</v>
+        <v>214</v>
+      </c>
+      <c r="B143" s="5">
+        <v>24658</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>48</v>
@@ -3451,13 +3470,13 @@
     </row>
     <row r="144" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144">
-        <v>5123</v>
+        <v>220</v>
+      </c>
+      <c r="B144" s="5">
+        <v>95632</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>50</v>
@@ -3465,13 +3484,13 @@
     </row>
     <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B145">
-        <v>5123</v>
+        <v>220</v>
+      </c>
+      <c r="B145" s="5">
+        <v>95632</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>53</v>
@@ -3479,13 +3498,13 @@
     </row>
     <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B146">
-        <v>5123</v>
+        <v>220</v>
+      </c>
+      <c r="B146" s="5">
+        <v>95632</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>55</v>
@@ -3493,13 +3512,13 @@
     </row>
     <row r="147" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="5">
+        <v>95632</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B147">
-        <v>5123</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>57</v>
@@ -3507,13 +3526,13 @@
     </row>
     <row r="148" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B148">
-        <v>5123</v>
+        <v>220</v>
+      </c>
+      <c r="B148" s="5">
+        <v>95632</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>59</v>
@@ -3521,13 +3540,13 @@
     </row>
     <row r="149" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B149">
-        <v>5124</v>
+        <v>226</v>
+      </c>
+      <c r="B149" s="5">
+        <v>24587</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>61</v>
@@ -3535,13 +3554,13 @@
     </row>
     <row r="150" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B150">
-        <v>5124</v>
+        <v>226</v>
+      </c>
+      <c r="B150" s="5">
+        <v>24587</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>64</v>
@@ -3549,13 +3568,13 @@
     </row>
     <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B151">
-        <v>5124</v>
+        <v>226</v>
+      </c>
+      <c r="B151" s="5">
+        <v>24587</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>66</v>
@@ -3563,13 +3582,13 @@
     </row>
     <row r="152" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="5">
+        <v>24587</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B152">
-        <v>5124</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>68</v>
@@ -3577,13 +3596,13 @@
     </row>
     <row r="153" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B153">
-        <v>5124</v>
+        <v>226</v>
+      </c>
+      <c r="B153" s="5">
+        <v>24587</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>70</v>
@@ -3591,13 +3610,13 @@
     </row>
     <row r="154" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B154">
-        <v>5125</v>
+        <v>232</v>
+      </c>
+      <c r="B154" s="5">
+        <v>79852</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>72</v>
@@ -3605,13 +3624,13 @@
     </row>
     <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B155">
-        <v>5125</v>
+        <v>232</v>
+      </c>
+      <c r="B155" s="5">
+        <v>79852</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>75</v>
@@ -3619,13 +3638,13 @@
     </row>
     <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B156">
-        <v>5125</v>
+        <v>232</v>
+      </c>
+      <c r="B156" s="5">
+        <v>79852</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>77</v>
@@ -3633,13 +3652,13 @@
     </row>
     <row r="157" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B157" s="5">
+        <v>79852</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B157">
-        <v>5125</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>79</v>
@@ -3647,13 +3666,13 @@
     </row>
     <row r="158" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B158">
-        <v>5125</v>
+        <v>232</v>
+      </c>
+      <c r="B158" s="5">
+        <v>79852</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>81</v>
@@ -3662,5 +3681,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/biz_case.xlsx
+++ b/biz_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ce27d4fc196741/바탕 화면/interiorbara_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04FEDC-18EF-413D-9A49-D6CACFF735F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9D04FEDC-18EF-413D-9A49-D6CACFF735F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC03CCF-6643-4DB5-9BB7-C9401496650E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87A8A066-4C97-4103-9735-67C26A891AC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="238">
   <si>
     <t>BC_WRITER</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가양2단지 성지아파트: 모노톤의 간결한 32평 화이트 인테리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오늘 보여드릴 현장은 현대아파트 24평형이에요. 
 89년식 구축 아파트이지만, 문틀과 중문, 폴딩도어 등 살릴 수 있는 부분은 최대한 살리고 필름 리폼 
 위주로 시공한 부분 리모델링 현장입니다.</t>
@@ -177,10 +173,6 @@
 주방은 집에서 중요한 공간 중 하나로 클라이언트 라이프 스타일과 모임의 중심이 되는 공간입니다. 
 그렇기 때문에 인테리어에 있어 주방 인테리어에는 다른 공간에 비해 좀 더 신경 써 인테리어 설계를 진행하고 있어요~ 
 가족분들의 삶의 질을 향상시키면서 더욱 즐거운 시간을 만들어 줄 주방 디자인과 팁, 트렌드에 대해 소개해 드리겠습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가양2단지 성지아파트: 모노톤의 심플한 화이트 인테리어 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1157,9 +1149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1197,7 +1189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1303,7 +1295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1445,7 +1437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1453,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF57F196-D472-4ADA-B5BE-F7AEA4A5A598}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1552,595 +1544,595 @@
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>45624</v>
+        <v>56454</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B8">
         <v>56454</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>56454</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>56454</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>56454</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>56454</v>
+        <v>67567</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>56454</v>
+        <v>67567</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>67567</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>67567</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>67567</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>67567</v>
+        <v>78786</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>67567</v>
+        <v>78786</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B19">
         <v>78786</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>78786</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>78786</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>78786</v>
+        <v>45745</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>78786</v>
+        <v>45745</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>45745</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>45745</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>45745</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B27">
-        <v>45745</v>
+        <v>54745</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>45745</v>
+        <v>54745</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B29">
         <v>54745</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>54745</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>54745</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>54745</v>
+        <v>54754</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>54745</v>
+        <v>54754</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>54754</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>54754</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>54754</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B37">
-        <v>54754</v>
+        <v>32432</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B38">
-        <v>54754</v>
+        <v>32432</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>32432</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>32432</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>87</v>
+      <c r="C40" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>32432</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B42">
-        <v>32432</v>
+        <v>54672</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B43">
-        <v>32432</v>
+        <v>54672</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="B44">
         <v>54672</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>54672</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>54672</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47">
-        <v>54672</v>
+        <v>104</v>
+      </c>
+      <c r="B47" s="5">
+        <v>15755</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48">
-        <v>54672</v>
+        <v>104</v>
+      </c>
+      <c r="B48" s="5">
+        <v>15755</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="B49" s="5">
         <v>15755</v>
@@ -2149,12 +2141,12 @@
         <v>107</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="5">
         <v>15755</v>
@@ -2163,12 +2155,12 @@
         <v>108</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5">
         <v>15755</v>
@@ -2177,40 +2169,40 @@
         <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B52" s="5">
-        <v>15755</v>
+        <v>45134</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="B53" s="5">
-        <v>15755</v>
+        <v>45134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" s="5">
         <v>45134</v>
@@ -2219,12 +2211,12 @@
         <v>113</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" s="5">
         <v>45134</v>
@@ -2233,12 +2225,12 @@
         <v>114</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="5">
         <v>45134</v>
@@ -2247,40 +2239,40 @@
         <v>115</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>45134</v>
+        <v>34631</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B58" s="5">
-        <v>45134</v>
+        <v>34631</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" s="5">
         <v>34631</v>
@@ -2289,68 +2281,68 @@
         <v>119</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="5">
         <v>34631</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="5">
         <v>34631</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="5">
-        <v>34631</v>
+        <v>34643</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="B63" s="5">
-        <v>34631</v>
+        <v>34643</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="5">
         <v>34643</v>
@@ -2359,12 +2351,12 @@
         <v>125</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="5">
         <v>34643</v>
@@ -2373,12 +2365,12 @@
         <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" s="5">
         <v>34643</v>
@@ -2387,40 +2379,40 @@
         <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="5">
-        <v>34643</v>
+        <v>54227</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="5">
-        <v>34643</v>
+        <v>54227</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="5">
         <v>54227</v>
@@ -2429,12 +2421,12 @@
         <v>131</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" s="5">
         <v>54227</v>
@@ -2443,12 +2435,12 @@
         <v>132</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B71" s="5">
         <v>54227</v>
@@ -2457,40 +2449,40 @@
         <v>133</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="5">
-        <v>54227</v>
+        <v>23464</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="B73" s="5">
-        <v>54227</v>
+        <v>23464</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="5">
         <v>23464</v>
@@ -2499,12 +2491,12 @@
         <v>137</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="5">
         <v>23464</v>
@@ -2513,12 +2505,12 @@
         <v>138</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" s="5">
         <v>23464</v>
@@ -2527,40 +2519,40 @@
         <v>139</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B77" s="5">
-        <v>23464</v>
+        <v>54548</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="B78" s="5">
-        <v>23464</v>
+        <v>54548</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5">
         <v>54548</v>
@@ -2569,12 +2561,12 @@
         <v>143</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B80" s="5">
         <v>54548</v>
@@ -2583,12 +2575,12 @@
         <v>144</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B81" s="5">
         <v>54548</v>
@@ -2597,40 +2589,40 @@
         <v>145</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="5">
-        <v>54548</v>
+        <v>146</v>
+      </c>
+      <c r="B82" s="6">
+        <v>85011</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="5">
-        <v>54548</v>
+        <v>146</v>
+      </c>
+      <c r="B83" s="6">
+        <v>85011</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="6">
         <v>85011</v>
@@ -2639,12 +2631,12 @@
         <v>149</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B85" s="6">
         <v>85011</v>
@@ -2653,12 +2645,12 @@
         <v>150</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B86" s="6">
         <v>85011</v>
@@ -2667,40 +2659,40 @@
         <v>151</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B87" s="6">
-        <v>85011</v>
+        <v>50506</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B88" s="6">
-        <v>85011</v>
+        <v>50506</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B89" s="6">
         <v>50506</v>
@@ -2709,12 +2701,12 @@
         <v>155</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B90" s="6">
         <v>50506</v>
@@ -2723,12 +2715,12 @@
         <v>156</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B91" s="6">
         <v>50506</v>
@@ -2737,40 +2729,40 @@
         <v>157</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B92" s="6">
-        <v>50506</v>
+        <v>20622</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B93" s="6">
-        <v>50506</v>
+        <v>20622</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B94" s="6">
         <v>20622</v>
@@ -2779,12 +2771,12 @@
         <v>161</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" s="6">
         <v>20622</v>
@@ -2793,12 +2785,12 @@
         <v>162</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="6">
         <v>20622</v>
@@ -2807,40 +2799,40 @@
         <v>163</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B97" s="6">
-        <v>20622</v>
+        <v>49607</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B98" s="6">
-        <v>20622</v>
+        <v>49607</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B99" s="6">
         <v>49607</v>
@@ -2849,12 +2841,12 @@
         <v>167</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B100" s="6">
         <v>49607</v>
@@ -2863,12 +2855,12 @@
         <v>168</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B101" s="6">
         <v>49607</v>
@@ -2877,40 +2869,40 @@
         <v>169</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B102" s="6">
-        <v>49607</v>
+        <v>48856</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B103" s="6">
-        <v>49607</v>
+        <v>48856</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104" s="6">
         <v>48856</v>
@@ -2919,12 +2911,12 @@
         <v>173</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B105" s="6">
         <v>48856</v>
@@ -2933,12 +2925,12 @@
         <v>174</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B106" s="6">
         <v>48856</v>
@@ -2947,40 +2939,40 @@
         <v>175</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B107" s="6">
-        <v>48856</v>
+        <v>68073</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B108" s="6">
-        <v>48856</v>
+        <v>68073</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B109" s="6">
         <v>68073</v>
@@ -2989,12 +2981,12 @@
         <v>179</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B110" s="6">
         <v>68073</v>
@@ -3003,12 +2995,12 @@
         <v>180</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B111" s="6">
         <v>68073</v>
@@ -3017,40 +3009,40 @@
         <v>181</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B112" s="6">
-        <v>68073</v>
+        <v>81185</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B113" s="6">
-        <v>68073</v>
+        <v>81185</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="B114" s="6">
         <v>81185</v>
@@ -3059,12 +3051,12 @@
         <v>185</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="B115" s="6">
         <v>81185</v>
@@ -3073,12 +3065,12 @@
         <v>186</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B116" s="6">
         <v>81185</v>
@@ -3087,40 +3079,40 @@
         <v>187</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B117" s="6">
-        <v>81185</v>
+        <v>50267</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B118" s="6">
-        <v>81185</v>
+        <v>50267</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B119" s="6">
         <v>50267</v>
@@ -3129,12 +3121,12 @@
         <v>191</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B120" s="6">
         <v>50267</v>
@@ -3143,12 +3135,12 @@
         <v>192</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B121" s="6">
         <v>50267</v>
@@ -3157,40 +3149,40 @@
         <v>193</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B122" s="6">
-        <v>50267</v>
+        <v>46354</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B123" s="6">
-        <v>50267</v>
+        <v>46354</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B124" s="6">
         <v>46354</v>
@@ -3199,12 +3191,12 @@
         <v>197</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B125" s="6">
         <v>46354</v>
@@ -3213,12 +3205,12 @@
         <v>198</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B126" s="6">
         <v>46354</v>
@@ -3227,40 +3219,40 @@
         <v>199</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B127" s="6">
-        <v>46354</v>
+        <v>16254</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="B128" s="6">
-        <v>46354</v>
+        <v>16254</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B129" s="6">
         <v>16254</v>
@@ -3269,12 +3261,12 @@
         <v>203</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B130" s="6">
         <v>16254</v>
@@ -3283,12 +3275,12 @@
         <v>204</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B131" s="6">
         <v>16254</v>
@@ -3297,40 +3289,40 @@
         <v>205</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B132" s="6">
-        <v>16254</v>
+        <v>22243</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B133" s="6">
-        <v>16254</v>
+        <v>22243</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B134" s="6">
         <v>22243</v>
@@ -3339,12 +3331,12 @@
         <v>209</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B135" s="6">
         <v>22243</v>
@@ -3353,12 +3345,12 @@
         <v>210</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B136" s="6">
         <v>22243</v>
@@ -3367,40 +3359,40 @@
         <v>211</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B137" s="6">
-        <v>22243</v>
+        <v>212</v>
+      </c>
+      <c r="B137" s="5">
+        <v>24658</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B138" s="6">
-        <v>22243</v>
+      <c r="B138" s="5">
+        <v>24658</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B139" s="5">
         <v>24658</v>
@@ -3409,12 +3401,12 @@
         <v>215</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B140" s="5">
         <v>24658</v>
@@ -3423,12 +3415,12 @@
         <v>216</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B141" s="5">
         <v>24658</v>
@@ -3437,40 +3429,40 @@
         <v>217</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B142" s="5">
-        <v>24658</v>
+        <v>95632</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="B143" s="5">
-        <v>24658</v>
+        <v>95632</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B144" s="5">
         <v>95632</v>
@@ -3479,12 +3471,12 @@
         <v>221</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B145" s="5">
         <v>95632</v>
@@ -3493,12 +3485,12 @@
         <v>222</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B146" s="5">
         <v>95632</v>
@@ -3507,40 +3499,40 @@
         <v>223</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B147" s="5">
-        <v>95632</v>
+        <v>24587</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B148" s="5">
-        <v>95632</v>
+        <v>24587</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B149" s="5">
         <v>24587</v>
@@ -3549,12 +3541,12 @@
         <v>227</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B150" s="5">
         <v>24587</v>
@@ -3563,12 +3555,12 @@
         <v>228</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B151" s="5">
         <v>24587</v>
@@ -3577,40 +3569,40 @@
         <v>229</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B152" s="5">
-        <v>24587</v>
+        <v>79852</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B153" s="5">
-        <v>24587</v>
+        <v>79852</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B154" s="5">
         <v>79852</v>
@@ -3619,12 +3611,12 @@
         <v>233</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B155" s="5">
         <v>79852</v>
@@ -3633,12 +3625,12 @@
         <v>234</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B156" s="5">
         <v>79852</v>
@@ -3647,35 +3639,7 @@
         <v>235</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B157" s="5">
-        <v>79852</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D157" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B158" s="5">
-        <v>79852</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
